--- a/doc/系统经分/数据学院开发任务分解.xlsx
+++ b/doc/系统经分/数据学院开发任务分解.xlsx
@@ -577,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,6 +794,15 @@
     </xf>
     <xf numFmtId="14" fontId="23" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1224,7 +1233,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1407,7 +1416,7 @@
         <v>42914</v>
       </c>
       <c r="J6" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K6" s="21"/>
       <c r="L6" s="35">
@@ -1418,10 +1427,10 @@
       </c>
       <c r="N6" s="37"/>
       <c r="O6" s="38">
-        <v>42916</v>
+        <v>42922</v>
       </c>
       <c r="P6" s="39">
-        <v>42923</v>
+        <v>42937</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1442,10 +1451,10 @@
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="29">
-        <v>42919</v>
+        <v>42922</v>
       </c>
       <c r="J7" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="64">
@@ -1456,10 +1465,10 @@
       </c>
       <c r="N7" s="66"/>
       <c r="O7" s="67">
-        <v>42916</v>
-      </c>
-      <c r="P7" s="67">
-        <v>42923</v>
+        <v>42922</v>
+      </c>
+      <c r="P7" s="73">
+        <v>42937</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1478,17 +1487,17 @@
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="29">
-        <v>42919</v>
+        <v>42922</v>
       </c>
       <c r="J8" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="64"/>
       <c r="M8" s="65"/>
       <c r="N8" s="66"/>
       <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
+      <c r="P8" s="74"/>
     </row>
     <row r="9" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57"/>
@@ -1506,17 +1515,17 @@
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="29">
-        <v>42919</v>
+        <v>42922</v>
       </c>
       <c r="J9" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="64"/>
       <c r="M9" s="65"/>
       <c r="N9" s="66"/>
       <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
+      <c r="P9" s="74"/>
     </row>
     <row r="10" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
@@ -1534,17 +1543,17 @@
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="29">
-        <v>42919</v>
+        <v>42922</v>
       </c>
       <c r="J10" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="64"/>
       <c r="M10" s="65"/>
       <c r="N10" s="66"/>
       <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
+      <c r="P10" s="75"/>
     </row>
     <row r="11" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
@@ -1564,10 +1573,10 @@
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="29">
-        <v>42919</v>
+        <v>42922</v>
       </c>
       <c r="J11" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="64">
@@ -1578,10 +1587,10 @@
       </c>
       <c r="N11" s="66"/>
       <c r="O11" s="67">
-        <v>42916</v>
-      </c>
-      <c r="P11" s="67">
-        <v>42923</v>
+        <v>42922</v>
+      </c>
+      <c r="P11" s="73">
+        <v>42937</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1600,17 +1609,17 @@
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="29">
-        <v>42919</v>
+        <v>42922</v>
       </c>
       <c r="J12" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="64"/>
       <c r="M12" s="65"/>
       <c r="N12" s="66"/>
       <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
+      <c r="P12" s="74"/>
     </row>
     <row r="13" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
@@ -1628,17 +1637,17 @@
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="29">
-        <v>42919</v>
+        <v>42922</v>
       </c>
       <c r="J13" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="64"/>
       <c r="M13" s="65"/>
       <c r="N13" s="66"/>
       <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
+      <c r="P13" s="75"/>
     </row>
     <row r="14" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="58" t="s">
@@ -1661,7 +1670,7 @@
         <v>42914</v>
       </c>
       <c r="J14" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="30"/>
@@ -1689,7 +1698,7 @@
         <v>42914</v>
       </c>
       <c r="J15" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="30"/>
@@ -1717,7 +1726,7 @@
         <v>42914</v>
       </c>
       <c r="J16" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="30"/>
@@ -1745,7 +1754,7 @@
         <v>42914</v>
       </c>
       <c r="J17" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="30"/>
@@ -1773,7 +1782,7 @@
         <v>42914</v>
       </c>
       <c r="J18" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="30"/>
@@ -1799,7 +1808,7 @@
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="29">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="K19" s="17"/>
       <c r="L19" s="40"/>
